--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1134624.359565088</v>
+        <v>-1136898.379692524</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7230781.01511738</v>
+        <v>7230781.015117382</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>369.8636214415592</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.04590347118615</v>
+        <v>414.0459034711861</v>
       </c>
       <c r="H2" t="n">
-        <v>326.6032504631755</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>36.54892865311328</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>70.9195164279444</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.3799638097597</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.594058536745</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2451061843206</v>
+        <v>11.58307393921596</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>171.2760163148128</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,22 +741,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>138.4630426599894</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6710516650733</v>
       </c>
       <c r="H3" t="n">
         <v>105.7408432413276</v>
       </c>
       <c r="I3" t="n">
-        <v>50.4109190555316</v>
+        <v>66.24376372694834</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.4059850665347</v>
+        <v>58.40598506653471</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.192419416944</v>
       </c>
       <c r="T3" t="n">
         <v>197.4542208317152</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>36.69342694126059</v>
       </c>
       <c r="C4" t="n">
-        <v>58.57070015031761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>151.9441304121514</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.1915812011575</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>39.47697642271542</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>53.15907523572393</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.5310119231965</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>129.7411677825657</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>132.9342137328512</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>291.7990604204827</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>299.9779908452708</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>89.30725745073111</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>27.3918313380648</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>188.9362773029746</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>241.7705468670418</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>86.37868314456206</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>179.4545529747373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>136.4881856130939</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>114.8287369885894</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>136.2208985853868</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.1145313824547</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>93.30122672835712</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>84.69473660442779</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,7 +2649,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247745</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>136.0325688578954</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>128.7073758808338</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>86.30923289504796</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124616</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,19 +3266,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797744</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124623</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3503,19 +3503,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231196</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3749,7 +3749,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G41" t="n">
         <v>363.9465890348609</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231196</v>
+        <v>359.9009091231187</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1160.765902665507</v>
+        <v>1990.122980470692</v>
       </c>
       <c r="C2" t="n">
-        <v>1160.765902665507</v>
+        <v>1621.16046353028</v>
       </c>
       <c r="D2" t="n">
-        <v>802.5002040587569</v>
+        <v>1262.89476492353</v>
       </c>
       <c r="E2" t="n">
-        <v>428.9005864410203</v>
+        <v>877.1065123252856</v>
       </c>
       <c r="F2" t="n">
-        <v>428.9005864410203</v>
+        <v>466.1206075356781</v>
       </c>
       <c r="G2" t="n">
-        <v>414.7128051569939</v>
+        <v>47.89242221124766</v>
       </c>
       <c r="H2" t="n">
-        <v>84.81053196186714</v>
+        <v>47.89242221124766</v>
       </c>
       <c r="I2" t="n">
         <v>47.89242221124766</v>
@@ -4331,10 +4331,10 @@
         <v>141.6681220034134</v>
       </c>
       <c r="K2" t="n">
-        <v>402.9583913971214</v>
+        <v>402.9583913971213</v>
       </c>
       <c r="L2" t="n">
-        <v>779.3887029883417</v>
+        <v>779.3887029883419</v>
       </c>
       <c r="M2" t="n">
         <v>1214.846500462593</v>
@@ -4352,28 +4352,28 @@
         <v>2394.621110562383</v>
       </c>
       <c r="R2" t="n">
-        <v>2322.985235382641</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="S2" t="n">
-        <v>2140.783251736419</v>
+        <v>2394.621110562383</v>
       </c>
       <c r="T2" t="n">
-        <v>2140.783251736419</v>
+        <v>2174.829132242438</v>
       </c>
       <c r="U2" t="n">
-        <v>1887.000316196701</v>
+        <v>2163.129057556362</v>
       </c>
       <c r="V2" t="n">
-        <v>1887.000316196701</v>
+        <v>1990.122980470692</v>
       </c>
       <c r="W2" t="n">
-        <v>1534.231660926587</v>
+        <v>1990.122980470692</v>
       </c>
       <c r="X2" t="n">
-        <v>1160.765902665507</v>
+        <v>1990.122980470692</v>
       </c>
       <c r="Y2" t="n">
-        <v>1160.765902665507</v>
+        <v>1990.122980470692</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>834.7809269573067</v>
+        <v>673.9805033038278</v>
       </c>
       <c r="C3" t="n">
-        <v>660.3278976761798</v>
+        <v>499.5274740227009</v>
       </c>
       <c r="D3" t="n">
-        <v>511.3934880149285</v>
+        <v>499.5274740227009</v>
       </c>
       <c r="E3" t="n">
-        <v>352.156033009473</v>
+        <v>499.5274740227009</v>
       </c>
       <c r="F3" t="n">
-        <v>205.621475036358</v>
+        <v>359.6658147701863</v>
       </c>
       <c r="G3" t="n">
-        <v>205.621475036358</v>
+        <v>221.6142474317284</v>
       </c>
       <c r="H3" t="n">
-        <v>98.81254246936039</v>
+        <v>114.8053148647308</v>
       </c>
       <c r="I3" t="n">
         <v>47.89242221124766</v>
       </c>
       <c r="J3" t="n">
-        <v>63.63896295422742</v>
+        <v>110.051206896601</v>
       </c>
       <c r="K3" t="n">
-        <v>296.4990696018657</v>
+        <v>342.9113135442392</v>
       </c>
       <c r="L3" t="n">
-        <v>671.0126159984516</v>
+        <v>717.4248599408251</v>
       </c>
       <c r="M3" t="n">
-        <v>1160.031481620795</v>
+        <v>1206.443725563169</v>
       </c>
       <c r="N3" t="n">
-        <v>1677.700234882571</v>
+        <v>1724.112478824944</v>
       </c>
       <c r="O3" t="n">
-        <v>2084.850331066023</v>
+        <v>1930.474537907025</v>
       </c>
       <c r="P3" t="n">
-        <v>2394.621110562383</v>
+        <v>2240.245317403385</v>
       </c>
       <c r="Q3" t="n">
         <v>2394.621110562383</v>
@@ -4434,25 +4434,25 @@
         <v>2335.625166050732</v>
       </c>
       <c r="S3" t="n">
-        <v>2335.625166050732</v>
+        <v>2174.824742397253</v>
       </c>
       <c r="T3" t="n">
-        <v>2136.176458139908</v>
+        <v>1975.376034486429</v>
       </c>
       <c r="U3" t="n">
-        <v>1907.997527907806</v>
+        <v>1747.197104254327</v>
       </c>
       <c r="V3" t="n">
-        <v>1672.845419676063</v>
+        <v>1512.044996022584</v>
       </c>
       <c r="W3" t="n">
-        <v>1418.608062947862</v>
+        <v>1257.807639294383</v>
       </c>
       <c r="X3" t="n">
-        <v>1210.756562742329</v>
+        <v>1049.95613908885</v>
       </c>
       <c r="Y3" t="n">
-        <v>1002.996263977375</v>
+        <v>842.1958403238959</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>254.9678391778</v>
+        <v>366.9452445514903</v>
       </c>
       <c r="C4" t="n">
-        <v>195.8055157936408</v>
+        <v>198.0090616235834</v>
       </c>
       <c r="D4" t="n">
-        <v>195.8055157936408</v>
+        <v>47.89242221124766</v>
       </c>
       <c r="E4" t="n">
         <v>47.89242221124766</v>
@@ -4489,49 +4489,49 @@
         <v>47.89242221124766</v>
       </c>
       <c r="K4" t="n">
-        <v>90.6907364200009</v>
+        <v>90.69073642000089</v>
       </c>
       <c r="L4" t="n">
         <v>200.9842782663081</v>
       </c>
       <c r="M4" t="n">
-        <v>327.6624769420744</v>
+        <v>327.6624769420743</v>
       </c>
       <c r="N4" t="n">
         <v>456.7631676148799</v>
       </c>
       <c r="O4" t="n">
-        <v>559.9922554890151</v>
+        <v>559.992255489015</v>
       </c>
       <c r="P4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="Q4" t="n">
-        <v>624.8018913124555</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="R4" t="n">
-        <v>471.3229717042217</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="S4" t="n">
-        <v>254.9678391778</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="T4" t="n">
-        <v>254.9678391778</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="U4" t="n">
-        <v>254.9678391778</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="V4" t="n">
-        <v>254.9678391778</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="W4" t="n">
-        <v>254.9678391778</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="X4" t="n">
-        <v>254.9678391778</v>
+        <v>624.8018913124554</v>
       </c>
       <c r="Y4" t="n">
-        <v>254.9678391778</v>
+        <v>404.0093121689252</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.489050745291</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1172.012887498878</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>813.747188892128</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>427.9589362938837</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>421.0134355446802</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4571,7 +4571,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2643.453055426582</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2389.691270064674</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2058.628382721103</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2058.628382721103</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>2058.628382721103</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y5" t="n">
-        <v>1668.489050745291</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961344</v>
@@ -4653,10 +4653,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943678</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>593.8520006378978</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>593.8520006378978</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>593.8520006378978</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.0594214943678</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.689018870909</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C8" t="n">
-        <v>1571.689018870909</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1571.689018870909</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1185.900766272665</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>774.9148614830572</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>356.951053381244</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1958.288858935031</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610024</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5054,13 +5054,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5124,7 +5124,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.7726509601081</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C13" t="n">
-        <v>804.8364680322012</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D13" t="n">
-        <v>654.7198286198654</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1483.982400140599</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1483.982400140599</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W13" t="n">
-        <v>1194.565230103638</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X13" t="n">
-        <v>1194.565230103638</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y13" t="n">
-        <v>973.7726509601081</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.993034926781</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3763.957685256236</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.9597618327374</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C16" t="n">
-        <v>784.0235789048305</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,49 +5437,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442081</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927042</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892253</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598118</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518531</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931532</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931532</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.657581931532</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1764.657581931532</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W16" t="n">
-        <v>1583.390356704524</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X16" t="n">
-        <v>1355.400805806507</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.608226662977</v>
+        <v>964.3709295897388</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5513,25 +5513,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>657.3479225192157</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O17" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.3941514382108</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="C19" t="n">
-        <v>557.3941514382108</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3941514382108</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1626.79072777689</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1626.79072777689</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1372.106239571003</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>1082.689069534042</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590082</v>
+        <v>854.6995186360249</v>
       </c>
       <c r="Y19" t="n">
-        <v>557.3941514382108</v>
+        <v>633.9069394924948</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>873.220281864028</v>
+        <v>550.0071782166609</v>
       </c>
       <c r="C22" t="n">
-        <v>704.2840989361212</v>
+        <v>381.070995288754</v>
       </c>
       <c r="D22" t="n">
-        <v>704.2840989361212</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E22" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1445.473983799873</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.473983799873</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W22" t="n">
-        <v>1445.473983799873</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X22" t="n">
-        <v>1275.661325837798</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y22" t="n">
-        <v>1054.868746694268</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5993,16 +5993,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6014,25 +6014,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>674.3568109459524</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>505.4206280180455</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>505.4206280180455</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>357.5075344356524</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>357.5075344356524</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>189.8046978103713</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>189.8046978103713</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1123.1389409875</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>895.1493900894825</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>674.3568109459524</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6230,16 +6230,16 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
         <v>487.9678785494859</v>
@@ -6303,28 +6303,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>401.9038525862967</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C28" t="n">
-        <v>232.9676696583898</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>232.9676696583898</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>232.9676696583898</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1355.643526557401</v>
+        <v>1412.883516116375</v>
       </c>
       <c r="V28" t="n">
-        <v>1100.959038351514</v>
+        <v>1158.199027910488</v>
       </c>
       <c r="W28" t="n">
-        <v>811.5418683145538</v>
+        <v>1158.199027910488</v>
       </c>
       <c r="X28" t="n">
-        <v>583.5523174165364</v>
+        <v>930.2094770124706</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.5523174165364</v>
+        <v>709.4168978689405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,52 +6461,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
         <v>794.200663232024</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142067</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282341</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1869.162422776373</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1677.476538603199</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1677.476538603199</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1677.476538603199</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1422.792050397312</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1133.374880360351</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1133.374880360351</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.374880360351</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,19 +6701,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025902</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932527</v>
+        <v>364.457836193253</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160453</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819764</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,7 +6877,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G35" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L35" t="n">
-        <v>1635.769886219269</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M35" t="n">
-        <v>2169.301790891193</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N35" t="n">
-        <v>2716.080607949976</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O35" t="n">
-        <v>3219.053078829313</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P35" t="n">
-        <v>3613.827445186491</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899673</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257049</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913849</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415478</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643401</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302712</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
         <v>172.7749345960314</v>
@@ -7099,7 +7099,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7114,13 +7114,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570352</v>
@@ -7129,7 +7129,7 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297368</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519673</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
         <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L38" t="n">
-        <v>1261.907203722595</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2240.457506552424</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611206</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490543</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.983160847721</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D39" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F39" t="n">
         <v>327.0192030246656</v>
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L39" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803187</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7312,22 +7312,22 @@
         <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913844</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
@@ -7339,7 +7339,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668979</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>842.4067862271443</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L41" t="n">
-        <v>1706.925601880499</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>2240.457506552424</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N41" t="n">
-        <v>2787.236323611206</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.208794490543</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R42" t="n">
         <v>2579.543989590362</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913842</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643393</v>
@@ -7564,13 +7564,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
@@ -7597,22 +7597,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
         <v>698.9037015467788</v>
@@ -7640,16 +7640,16 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L44" t="n">
         <v>1635.769886219269</v>
@@ -7658,40 +7658,40 @@
         <v>2169.301790891193</v>
       </c>
       <c r="N44" t="n">
-        <v>2716.080607949976</v>
+        <v>2716.080607949975</v>
       </c>
       <c r="O44" t="n">
-        <v>3219.053078829313</v>
+        <v>3219.053078829312</v>
       </c>
       <c r="P44" t="n">
-        <v>3613.827445186491</v>
+        <v>3613.82744518649</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U44" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7801,19 +7801,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,28 +7825,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
         <v>908.2998821519662</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>79.20998085316282</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>191.0461201844356</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.14214313080116</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8301,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>39.48321557772658</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.2173930448432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>180.7381496078621</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10358,10 +10358,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>246.4545694808461</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>71.87446026386894</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>40.02214132148703</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>167.736966642837</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11060,10 +11060,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>71.87446026386885</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544146</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>71.87446026386894</v>
+        <v>71.87446026386854</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4728664379525</v>
+        <v>162.0217950910658</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>156.4762421553222</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>108.6761209483102</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4272068744005</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181936</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>97.27556090263826</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.75245146954921</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>93.45329703737524</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>107.0684453618537</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>83.06076366307525</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.7559163635053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>12.39457443282552</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24175,22 +24175,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.59512400658244</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>3.051193681480967</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.388479165035847</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>157.5044623247791</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>2.622919774999374</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-6.323830348264892e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-7.034373084024992e-13</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172775.192622652</v>
+        <v>172775.1926226521</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>178686.8040991426</v>
+        <v>178686.8040991425</v>
       </c>
       <c r="F2" t="n">
-        <v>178686.8040991426</v>
+        <v>178686.8040991425</v>
       </c>
       <c r="G2" t="n">
-        <v>178686.8040991426</v>
+        <v>178686.8040991424</v>
       </c>
       <c r="H2" t="n">
         <v>178686.8040991426</v>
@@ -26338,16 +26338,16 @@
         <v>178686.8040991426</v>
       </c>
       <c r="K2" t="n">
-        <v>178686.8040991424</v>
+        <v>178686.8040991426</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.398219464</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194641</v>
+        <v>184734.398219464</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194638</v>
@@ -26366,7 +26366,7 @@
         <v>501884.6814771933</v>
       </c>
       <c r="C3" t="n">
-        <v>83720.31263904345</v>
+        <v>83720.31263904346</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>156634.561462996</v>
       </c>
       <c r="K3" t="n">
-        <v>19465.25531848962</v>
+        <v>19465.25531848965</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>84741.61795950531</v>
+        <v>84741.61795950525</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194330.6670587447</v>
+        <v>194330.6670587446</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26427,37 +26427,37 @@
         <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499379</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499383</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499385</v>
       </c>
       <c r="L4" t="n">
-        <v>40547.88465321288</v>
+        <v>40547.8846532129</v>
       </c>
       <c r="M4" t="n">
-        <v>62292.78252777376</v>
+        <v>62292.78252777381</v>
       </c>
       <c r="N4" t="n">
-        <v>62292.78252777374</v>
+        <v>62292.7825277738</v>
       </c>
       <c r="O4" t="n">
-        <v>62292.78252777376</v>
+        <v>62292.78252777382</v>
       </c>
       <c r="P4" t="n">
-        <v>62292.78252777376</v>
+        <v>62292.7825277738</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26488,28 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>100332.6710141021</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-600281.4936056581</v>
+        <v>-600414.3736678447</v>
       </c>
       <c r="C6" t="n">
-        <v>-182909.4984107207</v>
+        <v>-182909.4984107208</v>
       </c>
       <c r="D6" t="n">
-        <v>-99189.18577167729</v>
+        <v>-99189.18577167732</v>
       </c>
       <c r="E6" t="n">
-        <v>-670164.8518229716</v>
+        <v>-670232.0473131975</v>
       </c>
       <c r="F6" t="n">
-        <v>57212.56217043508</v>
+        <v>57145.36668020923</v>
       </c>
       <c r="G6" t="n">
-        <v>57212.56217043511</v>
+        <v>57145.36668020914</v>
       </c>
       <c r="H6" t="n">
-        <v>57212.56217043517</v>
+        <v>57145.36668020931</v>
       </c>
       <c r="I6" t="n">
-        <v>57212.56217043514</v>
+        <v>57145.36668020944</v>
       </c>
       <c r="J6" t="n">
-        <v>-99421.99929256091</v>
+        <v>-99489.1947827867</v>
       </c>
       <c r="K6" t="n">
-        <v>37747.30685194531</v>
+        <v>37680.11136171965</v>
       </c>
       <c r="L6" t="n">
         <v>6273.733257274871</v>
       </c>
       <c r="M6" t="n">
-        <v>-51677.94394262113</v>
+        <v>-51677.94394262117</v>
       </c>
       <c r="N6" t="n">
-        <v>33063.6740168839</v>
+        <v>33063.67401688377</v>
       </c>
       <c r="O6" t="n">
-        <v>33063.67401688392</v>
+        <v>33063.67401688384</v>
       </c>
       <c r="P6" t="n">
-        <v>33063.6740168839</v>
+        <v>33063.67401688386</v>
       </c>
     </row>
   </sheetData>
@@ -26716,13 +26716,13 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859258</v>
@@ -26738,10 +26738,10 @@
         <v>312.6374684322896</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
     </row>
   </sheetData>
@@ -26960,7 +26960,7 @@
         <v>312.6374684322896</v>
       </c>
       <c r="C3" t="n">
-        <v>65.10619578479708</v>
+        <v>65.10619578479705</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27012,7 +27012,7 @@
         <v>598.6552776405957</v>
       </c>
       <c r="C4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395999</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>598.6552776405957</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395999</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.049188454059</v>
+        <v>340.0491884540587</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,7 +27258,7 @@
         <v>598.6552776405957</v>
       </c>
       <c r="K4" t="n">
-        <v>75.63199511395985</v>
+        <v>75.63199511395999</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.06674863070253</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.6032504631755</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>70.91951642794442</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.3799638097597</v>
       </c>
       <c r="T2" t="n">
-        <v>217.594058536745</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.6620322451046</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27461,22 +27461,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.606169733394438</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6710516650733</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15.83284467141674</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.192419416944</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>143.1385532406767</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4272068744005</v>
       </c>
       <c r="H4" t="n">
         <v>157.2147226037219</v>
@@ -27558,7 +27558,7 @@
         <v>138.4962987703072</v>
       </c>
       <c r="J4" t="n">
-        <v>53.50046549375612</v>
+        <v>53.50046549375613</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>38.95378551841866</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.9441304121514</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.1915812011575</v>
       </c>
       <c r="T4" t="n">
         <v>225.5367433600327</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>374.3071935980796</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>163.2892451219338</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>50.09081239937163</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>119.2034295909768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>90.93478124299787</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>23.94478191908638</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>59.30821556748124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>198.3178240509723</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.343281041954469e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28561,13 +28561,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="D38" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="E38" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="F38" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="C38" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="D38" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="E38" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="F38" t="n">
-        <v>46.97513661859188</v>
-      </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859278</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30706,7 +30706,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859278</v>
       </c>
       <c r="G44" t="n">
         <v>46.97513661859258</v>
@@ -30715,7 +30715,7 @@
         <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31042,7 +31042,7 @@
         <v>1.256834043948902</v>
       </c>
       <c r="H2" t="n">
-        <v>12.8715516525917</v>
+        <v>12.87155165259169</v>
       </c>
       <c r="I2" t="n">
         <v>48.45409447934009</v>
@@ -31051,7 +31051,7 @@
         <v>106.6722184376082</v>
       </c>
       <c r="K2" t="n">
-        <v>159.8740035179653</v>
+        <v>159.8740035179652</v>
       </c>
       <c r="L2" t="n">
         <v>198.3378383904665</v>
@@ -31066,19 +31066,19 @@
         <v>211.7623970223957</v>
       </c>
       <c r="P2" t="n">
-        <v>180.7343065624072</v>
+        <v>180.7343065624071</v>
       </c>
       <c r="Q2" t="n">
         <v>135.7239373634871</v>
       </c>
       <c r="R2" t="n">
-        <v>78.94960151320528</v>
+        <v>78.94960151320527</v>
       </c>
       <c r="S2" t="n">
         <v>28.64010577648563</v>
       </c>
       <c r="T2" t="n">
-        <v>5.501791027386322</v>
+        <v>5.501791027386321</v>
       </c>
       <c r="U2" t="n">
         <v>0.1005467235159121</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6724654981373777</v>
+        <v>0.6724654981373775</v>
       </c>
       <c r="H3" t="n">
-        <v>6.494600995168885</v>
+        <v>6.494600995168884</v>
       </c>
       <c r="I3" t="n">
         <v>23.15286912446673</v>
       </c>
       <c r="J3" t="n">
-        <v>63.53324252358445</v>
+        <v>63.53324252358444</v>
       </c>
       <c r="K3" t="n">
         <v>108.5884308987887</v>
@@ -31139,7 +31139,7 @@
         <v>170.3874202955978</v>
       </c>
       <c r="N3" t="n">
-        <v>174.8970683072297</v>
+        <v>174.8970683072296</v>
       </c>
       <c r="O3" t="n">
         <v>159.9966485853435</v>
@@ -31148,19 +31148,19 @@
         <v>128.4114160434436</v>
       </c>
       <c r="Q3" t="n">
-        <v>85.83963095522036</v>
+        <v>85.83963095522034</v>
       </c>
       <c r="R3" t="n">
-        <v>41.75184908610843</v>
+        <v>41.75184908610842</v>
       </c>
       <c r="S3" t="n">
-        <v>12.49075168689383</v>
+        <v>12.49075168689382</v>
       </c>
       <c r="T3" t="n">
         <v>2.710507863106359</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04424115119324855</v>
+        <v>0.04424115119324854</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5637724840582271</v>
+        <v>0.563772484058227</v>
       </c>
       <c r="H4" t="n">
         <v>5.012449903717695</v>
@@ -31206,40 +31206,40 @@
         <v>16.95417615695105</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85871462291665</v>
+        <v>39.85871462291664</v>
       </c>
       <c r="K4" t="n">
-        <v>65.50011223876491</v>
+        <v>65.5001122387649</v>
       </c>
       <c r="L4" t="n">
-        <v>83.81759276625679</v>
+        <v>83.81759276625678</v>
       </c>
       <c r="M4" t="n">
-        <v>88.37389947832735</v>
+        <v>88.37389947832733</v>
       </c>
       <c r="N4" t="n">
-        <v>86.2725656741104</v>
+        <v>86.27256567411038</v>
       </c>
       <c r="O4" t="n">
-        <v>79.68667801943016</v>
+        <v>79.68667801943015</v>
       </c>
       <c r="P4" t="n">
-        <v>68.18571934464228</v>
+        <v>68.18571934464227</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.20825773327573</v>
+        <v>47.20825773327572</v>
       </c>
       <c r="R4" t="n">
-        <v>25.3492609650181</v>
+        <v>25.34926096501809</v>
       </c>
       <c r="S4" t="n">
-        <v>9.825016835814736</v>
+        <v>9.825016835814735</v>
       </c>
       <c r="T4" t="n">
         <v>2.408846068248788</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03075122640317606</v>
+        <v>0.03075122640317605</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.72292908299571</v>
+        <v>94.72292908299568</v>
       </c>
       <c r="K2" t="n">
-        <v>263.9295650441495</v>
+        <v>263.9295650441494</v>
       </c>
       <c r="L2" t="n">
         <v>380.2326379709297</v>
@@ -34708,13 +34708,13 @@
         <v>439.8563610851025</v>
       </c>
       <c r="N2" t="n">
-        <v>432.1939013623059</v>
+        <v>432.1939013623058</v>
       </c>
       <c r="O2" t="n">
-        <v>362.4643668634544</v>
+        <v>362.4643668634543</v>
       </c>
       <c r="P2" t="n">
-        <v>271.3000189786203</v>
+        <v>271.3000189786202</v>
       </c>
       <c r="Q2" t="n">
         <v>125.7332381489423</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.90559671008057</v>
+        <v>62.78665119732658</v>
       </c>
       <c r="K3" t="n">
         <v>235.2122289370083</v>
@@ -34787,16 +34787,16 @@
         <v>493.9584501235794</v>
       </c>
       <c r="N3" t="n">
-        <v>522.8977305674499</v>
+        <v>522.8977305674498</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2627234176286</v>
+        <v>208.4465243253346</v>
       </c>
       <c r="P3" t="n">
         <v>312.8997772690506</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>155.9351446050479</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>43.23062041288206</v>
+        <v>43.23062041288205</v>
       </c>
       <c r="L4" t="n">
         <v>111.4076180265729</v>
@@ -34872,7 +34872,7 @@
         <v>104.2718059334698</v>
       </c>
       <c r="P4" t="n">
-        <v>65.46427860953577</v>
+        <v>65.46427860953575</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>559.3763608778464</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443213</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>376.6745021331271</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35902,7 +35902,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>427.0116978485627</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>733.0399850207735</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937573</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>614.4119707098148</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>322.6687650675884</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>495.6122557138192</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>418.5312714465564</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>409.0657468192693</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,25 +38017,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>322.6687650675884</v>
+        <v>322.668765067588</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597776</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
